--- a/Execution Providers Tester/opset_20/Windows - DirectML/report_DmlExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_20/Windows - DirectML/report_DmlExecutionProvider_aggregated.xlsx
@@ -6312,7 +6312,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 11:54:49</t>
+          <t>2025-08-27 12:29:37</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_20/Windows - DirectML/report_DmlExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_20/Windows - DirectML/report_DmlExecutionProvider_aggregated.xlsx
@@ -6312,7 +6312,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 12:29:37</t>
+          <t>2025-08-27 16:48:00</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_20/Windows - DirectML/report_DmlExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_20/Windows - DirectML/report_DmlExecutionProvider_aggregated.xlsx
@@ -6312,7 +6312,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 16:48:00</t>
+          <t>2025-08-29 10:43:36</t>
         </is>
       </c>
     </row>
